--- a/2022/Realme/May/23.05.2022/realme Bank Statement May-20222.xlsx
+++ b/2022/Realme/May/23.05.2022/realme Bank Statement May-20222.xlsx
@@ -1751,7 +1751,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="280">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2399,6 +2399,9 @@
     <xf numFmtId="1" fontId="32" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2408,6 +2411,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2435,28 +2456,10 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3128,29 +3131,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="227"/>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
+      <c r="A1" s="228"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1">
       <c r="A3" s="15"/>
-      <c r="B3" s="226" t="s">
+      <c r="B3" s="227" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="B4" s="16" t="s">
@@ -4056,67 +4059,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
+      <c r="B1" s="235"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="235"/>
+      <c r="K1" s="235"/>
+      <c r="L1" s="235"/>
+      <c r="M1" s="235"/>
+      <c r="N1" s="235"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="236" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
+      <c r="G2" s="236"/>
+      <c r="H2" s="236"/>
+      <c r="I2" s="236"/>
+      <c r="J2" s="236"/>
+      <c r="K2" s="236"/>
+      <c r="L2" s="236"/>
+      <c r="M2" s="236"/>
+      <c r="N2" s="236"/>
+      <c r="O2" s="236"/>
+      <c r="P2" s="236"/>
+      <c r="Q2" s="236"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="237" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="232"/>
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="238"/>
+      <c r="F3" s="238"/>
+      <c r="G3" s="238"/>
+      <c r="H3" s="238"/>
+      <c r="I3" s="238"/>
+      <c r="J3" s="238"/>
+      <c r="K3" s="238"/>
+      <c r="L3" s="238"/>
+      <c r="M3" s="238"/>
+      <c r="N3" s="238"/>
+      <c r="O3" s="238"/>
+      <c r="P3" s="238"/>
+      <c r="Q3" s="239"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4125,52 +4128,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="229" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="237" t="s">
+      <c r="D4" s="229" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="229" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="229" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="237" t="s">
+      <c r="I4" s="229" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="237" t="s">
+      <c r="J4" s="229" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="K4" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="237" t="s">
+      <c r="L4" s="229" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="237" t="s">
+      <c r="M4" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="243" t="s">
+      <c r="N4" s="233" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="231" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="239" t="s">
+      <c r="P4" s="244" t="s">
         <v>31</v>
       </c>
       <c r="Q4" s="64" t="s">
@@ -4183,22 +4186,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="234"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="240"/>
+      <c r="A5" s="241"/>
+      <c r="B5" s="243"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="230"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="230"/>
+      <c r="N5" s="234"/>
+      <c r="O5" s="232"/>
+      <c r="P5" s="245"/>
       <c r="Q5" s="69" t="s">
         <v>32</v>
       </c>
@@ -7254,9 +7257,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -7273,6 +7273,9 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7283,7 +7286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE232"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -7294,7 +7297,7 @@
     <col min="3" max="3" width="11.28515625" style="36" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="36" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.42578125" style="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" style="37" bestFit="1" customWidth="1"/>
     <col min="9" max="26" width="9.140625" style="36" customWidth="1"/>
@@ -7306,14 +7309,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="249" t="s">
+      <c r="A1" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="250"/>
-      <c r="C1" s="250"/>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="251"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="252"/>
       <c r="H1" s="38"/>
       <c r="I1" s="116"/>
       <c r="J1" s="116"/>
@@ -7366,14 +7369,14 @@
       <c r="BE1" s="116"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="253" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="254"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="254"/>
+      <c r="D2" s="254"/>
+      <c r="E2" s="254"/>
+      <c r="F2" s="255"/>
       <c r="H2" s="38"/>
       <c r="I2" s="116"/>
       <c r="J2" s="116"/>
@@ -7426,14 +7429,14 @@
       <c r="BE2" s="116"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="255" t="s">
+      <c r="A3" s="256" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
-      <c r="F3" s="257"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="257"/>
+      <c r="D3" s="257"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="258"/>
       <c r="H3" s="38"/>
       <c r="I3" s="116"/>
       <c r="J3" s="116"/>
@@ -9235,11 +9238,11 @@
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="39">
-        <v>-823440</v>
+        <v>-814350</v>
       </c>
       <c r="E32" s="206">
         <f t="shared" si="0"/>
-        <v>-823440</v>
+        <v>-814350</v>
       </c>
       <c r="F32" s="211"/>
       <c r="G32" s="51"/>
@@ -9306,11 +9309,11 @@
       <c r="D33" s="216"/>
       <c r="E33" s="217">
         <f>SUM(E5:E32)</f>
-        <v>-823440</v>
+        <v>-814350</v>
       </c>
       <c r="F33" s="218">
         <f>B33-E33</f>
-        <v>823440</v>
+        <v>814350</v>
       </c>
       <c r="G33" s="50"/>
       <c r="H33" s="38"/>
@@ -9424,13 +9427,13 @@
       <c r="BE34" s="116"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="259" t="s">
+      <c r="A35" s="260" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="260"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="261"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="262"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9485,12 +9488,12 @@
       <c r="BE35" s="116"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="247" t="s">
+      <c r="A36" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="248"/>
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="249"/>
       <c r="E36" s="134">
         <f>F33-C121</f>
         <v>0</v>
@@ -10129,12 +10132,13 @@
       </c>
       <c r="B46" s="178"/>
       <c r="C46" s="179">
-        <v>124450</v>
+        <v>110360</v>
       </c>
       <c r="D46" s="180" t="s">
         <v>115</v>
       </c>
       <c r="E46" s="41"/>
+      <c r="F46" s="225"/>
       <c r="G46" s="116"/>
       <c r="H46" s="116"/>
       <c r="I46" s="116"/>
@@ -10186,7 +10190,7 @@
       </c>
       <c r="B47" s="178"/>
       <c r="C47" s="179">
-        <v>12680</v>
+        <v>17680</v>
       </c>
       <c r="D47" s="180" t="s">
         <v>115</v>
@@ -13930,13 +13934,13 @@
       <c r="AX118" s="116"/>
     </row>
     <row r="119" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A119" s="245" t="s">
+      <c r="A119" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="246"/>
+      <c r="B119" s="247"/>
       <c r="C119" s="176">
         <f>SUM(C37:C118)</f>
-        <v>823440</v>
+        <v>814350</v>
       </c>
       <c r="D119" s="175"/>
       <c r="F119" s="116"/>
@@ -14037,13 +14041,13 @@
       <c r="AX120" s="116"/>
     </row>
     <row r="121" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A121" s="247" t="s">
+      <c r="A121" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B121" s="248"/>
+      <c r="B121" s="249"/>
       <c r="C121" s="133">
         <f>C119</f>
-        <v>823440</v>
+        <v>814350</v>
       </c>
       <c r="D121" s="132"/>
       <c r="F121" s="116"/>
@@ -14811,7 +14815,7 @@
   <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14836,35 +14840,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="26.25">
-      <c r="A1" s="265" t="s">
+      <c r="A1" s="266" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="266"/>
-      <c r="C1" s="266"/>
-      <c r="D1" s="266"/>
-      <c r="E1" s="267"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="268"/>
       <c r="F1" s="144"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:28" ht="21.75">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="276"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="277"/>
       <c r="F2" s="144"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="24" thickBot="1">
-      <c r="A3" s="268" t="s">
+      <c r="A3" s="269" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="269"/>
-      <c r="E3" s="270"/>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="271"/>
       <c r="F3" s="144"/>
       <c r="G3" s="29"/>
       <c r="H3" s="1"/>
@@ -14890,13 +14894,13 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" ht="24" thickBot="1">
-      <c r="A4" s="277" t="s">
+      <c r="A4" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="278"/>
-      <c r="E4" s="279"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="280"/>
       <c r="F4" s="144"/>
       <c r="G4" s="29"/>
       <c r="I4" s="1"/>
@@ -15005,7 +15009,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="141">
-        <v>452664.15000000037</v>
+        <v>461754.15000000037</v>
       </c>
       <c r="F7" s="144"/>
       <c r="G7" s="15" t="s">
@@ -15108,7 +15112,7 @@
         <v>12</v>
       </c>
       <c r="E10" s="124">
-        <v>823440</v>
+        <v>814350</v>
       </c>
       <c r="F10" s="144"/>
       <c r="G10" s="28"/>
@@ -15398,13 +15402,13 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="23.25" thickBot="1">
-      <c r="A20" s="271" t="s">
+      <c r="A20" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="272"/>
-      <c r="C20" s="272"/>
-      <c r="D20" s="272"/>
-      <c r="E20" s="273"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="274"/>
       <c r="F20" s="144"/>
       <c r="G20" s="127"/>
       <c r="H20" s="1"/>
@@ -15550,11 +15554,11 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:28" ht="21" thickBot="1">
-      <c r="A26" s="262"/>
-      <c r="B26" s="263"/>
-      <c r="C26" s="263"/>
-      <c r="D26" s="263"/>
-      <c r="E26" s="264"/>
+      <c r="A26" s="263"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="265"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
